--- a/data/income_statement/3digits/total/162_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/162_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>162-Manufacture of products of wood, cork, straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>162-Manufacture of products of wood, cork, straw and plaiting materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5441698.48584</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6686062.56488</v>
+        <v>6686062.564879999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8526532.680360001</v>
+        <v>8526714.16257</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>9779780.695180001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10919595.15775</v>
+        <v>10921332.31463</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11012863.52409</v>
+        <v>13145512.50606</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9406703.847589999</v>
+        <v>14895467.27794</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15290703.84024</v>
+        <v>15299791.40335</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>18578139.11932</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23720051.35366</v>
+        <v>23747516.19815</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26639285.66872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26791730.03804</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>34539988.799</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4794380.51349</v>
@@ -995,43 +906,48 @@
         <v>5980521.547449999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7586213.598290001</v>
+        <v>7586395.0805</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>8735036.707839999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9641051.46215</v>
+        <v>9642785.570630001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9738696.8102</v>
+        <v>11578070.71455</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8126657.30639</v>
+        <v>13088187.37244</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>13205433.21145</v>
+        <v>13214200.36739</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>15755817.56145</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>19626297.8694</v>
+        <v>19653500.71167</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21878111.40076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>22010597.09238</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>28012688.97</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>597236.6057000001</v>
+        <v>597236.6057</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>645684.34308</v>
+        <v>645684.3430799999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>874325.0237</v>
@@ -1043,10 +959,10 @@
         <v>1204540.21803</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1206257.11555</v>
+        <v>1483585.62726</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1187158.93286</v>
+        <v>1678899.62572</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1965145.38148</v>
@@ -1055,16 +971,21 @@
         <v>2638965.28007</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3888243.23062</v>
+        <v>3888364.9204</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4446253.32406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4468456.54566</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6217091.907</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>50081.36665</v>
@@ -1079,31 +1000,36 @@
         <v>58143.48042</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>74003.47756999999</v>
+        <v>74006.52597</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>67909.59833999998</v>
+        <v>83856.16425</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>92887.60834000001</v>
+        <v>128380.27978</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>120125.24731</v>
+        <v>120445.65448</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>183356.2778</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>205510.25364</v>
+        <v>205650.56608</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>314920.9439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>312676.4</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>310207.922</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>160716.80247</v>
@@ -1121,28 +1047,33 @@
         <v>382690.63048</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>303454.86075</v>
+        <v>483850.09077</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>168319.82032</v>
+        <v>511202.74901</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>515835.76911</v>
+        <v>515876.90742</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>645501.01272</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>762609.8194500001</v>
+        <v>762627.5774500001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1296899.90036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1298070.91547</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1720496.496</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>24909.77294</v>
@@ -1160,28 +1091,33 @@
         <v>30092.41791</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>33306.40236</v>
+        <v>36045.8085</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>42597.50227</v>
+        <v>51786.10752</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>67774.23628</v>
+        <v>67811.19299000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>68352.44126000001</v>
+        <v>68352.44125999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>95398.68578</v>
+        <v>95415.99974000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>92544.42225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>94101.96381</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>125945.504</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>106228.45795</v>
@@ -1196,31 +1132,36 @@
         <v>195629.35017</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>287143.0867399999</v>
+        <v>287143.08674</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>257360.10126</v>
+        <v>371117.62744</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>98590.06140000001</v>
+        <v>366035.16549</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>348206.90436</v>
+        <v>348211.08596</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>437500.32038</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>480046.1965000001</v>
+        <v>480046.6405399999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>975470.83945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>975471.1894500001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1333121.09</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>29578.57158</v>
@@ -1238,13 +1179,13 @@
         <v>65455.12583</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>12788.35713</v>
+        <v>76686.65483</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>27132.25665</v>
+        <v>93381.476</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>99854.62847</v>
+        <v>99854.62847000001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>139648.25108</v>
@@ -1253,52 +1194,62 @@
         <v>187164.93717</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>228884.63866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>228497.76221</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>261429.902</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5280981.68337</v>
+        <v>5280981.683370001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>6476780.05955</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8260450.499729999</v>
+        <v>8260631.981939999</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>9505291.559869999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10536904.52727</v>
+        <v>10538641.68415</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10709408.66334</v>
+        <v>12661662.41529</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9238384.02727</v>
+        <v>14384264.52893</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14774868.07113</v>
+        <v>14783914.49593</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>17932638.1066</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>22957441.53421</v>
+        <v>22984888.6207</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25342385.76836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25493659.12257</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>32819492.303</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>4418389.21292</v>
@@ -1307,37 +1258,42 @@
         <v>5388205.221720001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6945517.60466</v>
+        <v>6945682.46884</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7809566.02794</v>
+        <v>7809566.027939999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8780209.807379998</v>
+        <v>8781649.819060002</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8901934.99832</v>
+        <v>10459878.89123</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7756714.83827</v>
+        <v>11913814.48513</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11870649.66141</v>
+        <v>11877634.49357</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>14572657.96479</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18336078.82897</v>
+        <v>18361461.1795</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20945127.14606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21097795.60941</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26099234.114</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3604016.09587</v>
@@ -1355,31 +1311,36 @@
         <v>7195252.46708</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7202510.86838</v>
+        <v>8636558.320799999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6404764.765509999</v>
+        <v>9653483.39855</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10229110.9613</v>
+        <v>10235951.30201</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12559081.04599</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15902463.44329</v>
+        <v>15924044.43812</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18170210.34495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18245162.6965</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>22600573.394</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>757362.93791</v>
+        <v>757362.9379100001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>833098.2385799999</v>
@@ -1391,31 +1352,36 @@
         <v>1334360.62528</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1415475.70149</v>
+        <v>1416915.71317</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1554286.21602</v>
+        <v>1662118.38624</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1158313.60222</v>
+        <v>2049055.38842</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1406353.85593</v>
+        <v>1406409.66083</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1748021.78596</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1984785.85485</v>
+        <v>1988286.56477</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2296773.23918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2371063.47091</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2934426.104</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>40659.61586</v>
@@ -1424,10 +1390,10 @@
         <v>77481.67118</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>122228.43966</v>
+        <v>122393.30384</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>78171.45082000001</v>
+        <v>78171.45082</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>121542.76002</v>
@@ -1436,7 +1402,7 @@
         <v>119178.4736</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>101097.80747</v>
+        <v>102096.82844</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>124561.21489</v>
@@ -1445,16 +1411,21 @@
         <v>168194.2343</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>314810.8064000001</v>
+        <v>315079.96923</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>244059.12315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>247093.583</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>301008.157</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16350.56328</v>
@@ -1469,31 +1440,36 @@
         <v>39066.93672</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>47938.87879000001</v>
+        <v>47938.87879</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>25959.44032000001</v>
+        <v>42023.71059</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>92538.66307</v>
+        <v>109178.86972</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>110623.62929</v>
+        <v>110712.31584</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>97360.89854000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>134018.72443</v>
+        <v>134050.20738</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>234084.43878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>234475.859</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>263226.459</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>862592.47045</v>
@@ -1502,37 +1478,42 @@
         <v>1088574.83783</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1314932.89507</v>
+        <v>1314949.5131</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>1695725.53193</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1756694.71989</v>
+        <v>1756991.86509</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1807473.66502</v>
+        <v>2201783.52406</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1481669.189</v>
+        <v>2470450.0438</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2904218.40972</v>
+        <v>2906280.00236</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3359980.14181</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4621362.70524</v>
+        <v>4623427.4412</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4397258.622299999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4395863.51316</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6720258.189</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>445285.91877</v>
@@ -1541,37 +1522,42 @@
         <v>529692.97224</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>633245.01639</v>
+        <v>633254.01601</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>717455.0438099999</v>
+        <v>717455.04562</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>872431.1389499999</v>
+        <v>872617.7011099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>934363.7590699999</v>
+        <v>1061641.57761</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>859592.7101</v>
+        <v>1145398.39665</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1357319.18608</v>
+        <v>1358801.00458</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1619283.16174</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1903361.95427</v>
+        <v>1906952.14696</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2224604.582229999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2242523.6419</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2726415.886</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2430.83571</v>
@@ -1592,7 +1578,7 @@
         <v>4318.778139999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2550.88938</v>
+        <v>2550.889380000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3556.14611</v>
@@ -1604,13 +1590,18 @@
         <v>4689.723050000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7580.887000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7580.887</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>12365.16</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>234594.14665</v>
@@ -1628,28 +1619,33 @@
         <v>470272.43175</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>495688.16032</v>
+        <v>574007.1670000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>411966.0783699999</v>
+        <v>600913.21208</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>746468.43516</v>
+        <v>746638.9259900001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>915253.9279</v>
+        <v>915253.9279000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1081362.5578</v>
+        <v>1081660.56186</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1212676.34717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1216177.13336</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1604631.107</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>208260.93641</v>
@@ -1658,37 +1654,42 @@
         <v>240858.82158</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>294820.85249</v>
+        <v>294829.85211</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>341415.1975299999</v>
+        <v>341415.1993400001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>400600.53002</v>
+        <v>400787.09218</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>434356.8206099999</v>
+        <v>483315.63247</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>445075.74235</v>
+        <v>541934.2951900001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>607294.6048099999</v>
+        <v>608605.9324800001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>700529.1907799999</v>
+        <v>700529.1907800001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>817309.6734200001</v>
+        <v>820601.86205</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1004347.34806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1018765.62154</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1109419.619</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>417306.55168</v>
@@ -1697,37 +1698,42 @@
         <v>558881.8655900001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>681687.87868</v>
+        <v>681695.49709</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>978270.4881199999</v>
+        <v>978270.4863100002</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>884263.58094</v>
+        <v>884374.1639800001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>873109.90595</v>
+        <v>1140141.94645</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>622076.4789</v>
+        <v>1325051.64715</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1546899.22364</v>
+        <v>1547478.99778</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1740696.98007</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2718000.75097</v>
+        <v>2716475.29424</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2172654.04007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2153339.87126</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3993842.303</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>166506.56633</v>
@@ -1742,31 +1748,36 @@
         <v>330865.55458</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>360937.84368</v>
+        <v>360937.8436799999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>377060.97531</v>
+        <v>610745.81323</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>589273.9211599999</v>
+        <v>1004130.78267</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>579685.8460000001</v>
+        <v>579825.50112</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1043653.83782</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3526564.24802</v>
+        <v>3526952.95084</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2086344.39186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2092118.9864</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4182689.159</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>322.73844</v>
@@ -1784,10 +1795,10 @@
         <v>3375.08003</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5901.88152</v>
+        <v>6066.51771</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6017.280870000001</v>
+        <v>11869.7829</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>4442.20441</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>30557.36245</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>295208.833</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>815.78158</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>19926.38209</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>663.635</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>15459.19154</v>
@@ -1862,28 +1883,33 @@
         <v>20873.16513</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>20498.7655</v>
+        <v>24756.65558</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>19289.84498</v>
+        <v>32383.27593</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>39275.40691000001</v>
+        <v>39370.61265</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>71263.97025999999</v>
+        <v>71263.97026</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>97068.64693</v>
+        <v>97074.02333</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>74999.74161000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>78127.85615000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>156362.335</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>19.51398</v>
@@ -1910,7 +1936,7 @@
         <v>17.74581</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>70.26939999999999</v>
+        <v>70.2694</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>44.70892</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>3474.36924</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>68.626</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3045.92206</v>
+        <v>3045.922059999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>2754.78016</v>
@@ -1943,7 +1974,7 @@
         <v>2353.90142</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3189.36004</v>
+        <v>3946.36004</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>16782.12377</v>
@@ -1955,13 +1986,18 @@
         <v>8124.44183</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>9990.7619</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9997.934670000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9961.151</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>245.92656</v>
@@ -1985,7 +2021,7 @@
         <v>1713.29214</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>589.98398</v>
+        <v>631.6710099999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1133.28492</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1702.70969</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>43927.582</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>124305.09149</v>
@@ -2018,28 +2059,33 @@
         <v>286606.49024</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>284497.80398</v>
+        <v>512809.53357</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>502425.94491</v>
+        <v>858319.24158</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>442327.18263</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>851592.8541600001</v>
+        <v>851592.85416</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3298449.9275</v>
+        <v>3298491.6268</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1807998.69898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1810228.27908</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3523940.073</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1583.49293</v>
@@ -2060,7 +2106,7 @@
         <v>22440.22892</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>16858.23377</v>
+        <v>38097.99489000001</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>19199.45841</v>
@@ -2072,13 +2118,18 @@
         <v>14420.7853</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>39047.43384999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>39047.43385</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>30386.617</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>8.568860000000001</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>204.54871</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>20700.33889</v>
@@ -2135,28 +2191,33 @@
         <v>29700.60299</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>38475.38052000001</v>
+        <v>39425.96258</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>37152.99943</v>
+        <v>55173.87017</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>52010.8172</v>
+        <v>52013.57954999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>95552.88386999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>100044.65032</v>
+        <v>100386.27744</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>98442.38334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>98852.11047</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>122150.307</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>100520.77114</v>
@@ -2171,31 +2232,36 @@
         <v>142696.38418</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>472909.80364</v>
+        <v>472924.08218</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>319574.82208</v>
+        <v>385512.40548</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>686576.22615</v>
+        <v>956438.11555</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>756720.2034999999</v>
+        <v>756721.38653</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>916959.20439</v>
+        <v>916959.2043900001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2977709.2371</v>
+        <v>2977739.33259</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1360837.86404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1363900.69404</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2307337.724</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1167.50603</v>
@@ -2210,13 +2276,13 @@
         <v>891.9222599999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>927.98293</v>
+        <v>927.9829299999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>974.0640500000001</v>
+        <v>978.12845</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>592.99039</v>
+        <v>2636.34023</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>3030.77153</v>
@@ -2228,13 +2294,18 @@
         <v>1405.03767</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1294.43728</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1344.23432</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1543.513</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>16478.41284</v>
@@ -2252,13 +2323,13 @@
         <v>30466.08004</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>27214.10991</v>
+        <v>28120.27589</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>35109.39348</v>
+        <v>54629.08059000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>76182.33174000001</v>
+        <v>76183.31494</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>40838.27711</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>65105.93852</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>42732.951</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>37.3584</v>
@@ -2282,7 +2358,7 @@
         <v>131.5596</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2083.589109999999</v>
+        <v>2083.58911</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>2940.77957</v>
@@ -2294,7 +2370,7 @@
         <v>35.64876</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>130.86184</v>
+        <v>131.14293</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0.00137</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>255.13224</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4086.833</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>73684.65827</v>
@@ -2324,34 +2405,39 @@
         <v>159942.88772</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>80922.16207000001</v>
+        <v>80922.16206999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>402362.10611</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>257762.03049</v>
+        <v>313952.87881</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>621495.9163799998</v>
+        <v>866141.81277</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>645423.7134799999</v>
+        <v>645423.71348</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>837172.76226</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2823077.998360001</v>
+        <v>2823084.795849999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1244050.37148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1247107.89665</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2198651.539</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1583.80666</v>
@@ -2369,10 +2455,10 @@
         <v>28062.93348</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>26508.64005</v>
+        <v>34398.46856</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>17948.45379</v>
+        <v>18138.05385</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>17746.3386</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>26534.57177</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>36501.207</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.54453</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>103.63338</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>88.321</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7558.48441</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3730.944399999999</v>
+        <v>3730.9444</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5846.813179999999</v>
+        <v>5846.813180000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>8886.85694</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10045.0101</v>
+        <v>10059.28864</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7071.291980000001</v>
+        <v>8017.96817</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11255.87197</v>
+        <v>14718.94688</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14337.04678</v>
+        <v>14337.24661</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>16430.9612</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13494.46581</v>
+        <v>13517.76381</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>23493.77937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>23449.28716</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>23733.36</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>238246.6796</v>
@@ -2480,34 +2581,39 @@
         <v>519350.90503</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>350533.87099</v>
+        <v>350533.8709900001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>697375.7537100001</v>
+        <v>697375.75371</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>312058.46288</v>
+        <v>640844.7962699999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>442790.73697</v>
+        <v>1066167.84243</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1018460.48648</v>
+        <v>1019107.82676</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1431035.55144</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2884669.61558</v>
+        <v>2885183.90927</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2229452.78177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2231172.93566</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3346994.207</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>167586.54112</v>
@@ -2525,31 +2631,36 @@
         <v>268916.1547</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>237798.26125</v>
+        <v>303947.52029</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>325290.81296</v>
+        <v>425831.8050799999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>484395.78579</v>
+        <v>485043.1260700001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>630635.933</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1115707.77703</v>
+        <v>1116222.07072</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1229054.61735</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1230761.3985</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1353370.137</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>70660.13848000001</v>
+        <v>70660.13847999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>61148.65693</v>
@@ -2564,28 +2675,33 @@
         <v>428459.5990100001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>74260.20163000003</v>
+        <v>336897.27598</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>117499.92401</v>
+        <v>640336.0373499999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>534064.70069</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>800399.61844</v>
+        <v>800399.6184400001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1768961.83855</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1000398.16442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1000411.53716</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1993624.07</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>245045.66727</v>
@@ -2594,37 +2710,42 @@
         <v>474540.9735</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>276389.63397</v>
+        <v>276397.25238</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>815905.7875300001</v>
+        <v>815905.78572</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>74915.86727</v>
+        <v>75012.17177</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>618537.5963000001</v>
+        <v>724530.55793</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>81983.43694</v>
+        <v>306576.47184</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>351404.37966</v>
+        <v>351475.28561</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>436356.06206</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>382186.14631</v>
+        <v>380505.00322</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>668707.7861199998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>650385.22796</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2522199.531</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>32212.17797</v>
@@ -2633,7 +2754,7 @@
         <v>43936.57368</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>51654.80087</v>
+        <v>51654.80087000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>52595.35917</v>
@@ -2642,28 +2763,33 @@
         <v>67754.71131</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>109306.47618</v>
+        <v>116733.7759</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>85381.10187</v>
+        <v>95973.06184000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>92864.08615999999</v>
+        <v>92884.30162</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>113398.89443</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>197893.15645</v>
+        <v>198540.07081</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>200214.83665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>210922.46241</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>313668.415</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1018.54626</v>
@@ -2681,10 +2807,10 @@
         <v>609.23406</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>498.26133</v>
+        <v>1297.187</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5889.37485</v>
+        <v>6002.28922</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3664.5124</v>
@@ -2698,20 +2824,25 @@
       <c r="M49" s="48" t="n">
         <v>13251.84294</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4003.185</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>31193.63171</v>
+        <v>31193.63171000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>43696.70904</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>51297.32236</v>
+        <v>51297.32236000001</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>52385.19383</v>
@@ -2720,31 +2851,36 @@
         <v>67145.47725</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>108808.21485</v>
+        <v>115436.5889</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>79491.72701999999</v>
+        <v>89970.77262</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>89199.57376</v>
+        <v>89219.78922000002</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>111445.52222</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>195082.6926</v>
+        <v>195729.60696</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>186962.99371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>197670.61947</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>309665.23</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>68654.58180999999</v>
+        <v>68654.58181</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>89811.46448000001</v>
@@ -2759,28 +2895,33 @@
         <v>155361.52607</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>159494.75994</v>
+        <v>197534.86758</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>76311.29986</v>
+        <v>121765.64645</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>194226.43605</v>
+        <v>194349.95488</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>150023.78118</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>254372.32982</v>
+        <v>254665.51173</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>305752.64745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>308245.80706</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>424334.55</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>43706.64118</v>
@@ -2789,7 +2930,7 @@
         <v>55322.38153</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>46726.19263</v>
+        <v>46726.19263000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>120874.36003</v>
@@ -2798,10 +2939,10 @@
         <v>81545.11845000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>62478.81351</v>
+        <v>91014.8587</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>34759.84250999999</v>
+        <v>66436.34224</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>72545.6544</v>
@@ -2813,13 +2954,18 @@
         <v>142085.10753</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>184484.84558</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>184646.14677</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>216626.173</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1786.14922</v>
@@ -2834,13 +2980,13 @@
         <v>16191.63017</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>880.09507</v>
+        <v>880.0950700000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1460.48899</v>
+        <v>3361.84107</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1976.0607</v>
+        <v>2324.79725</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>17450.89158</v>
@@ -2849,19 +2995,24 @@
         <v>1968.77231</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6947.84073</v>
+        <v>6990.16235</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3241.170230000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3241.77221</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3843.857</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>23161.79141</v>
+        <v>23161.79141000001</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>33340.75092</v>
@@ -2873,31 +3024,36 @@
         <v>41038.4999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>72936.31255</v>
+        <v>72936.31255000002</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>95555.45744</v>
+        <v>103158.16781</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>39575.39665</v>
+        <v>53004.50696</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>104229.89007</v>
+        <v>104353.4089</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>72325.82161999999</v>
+        <v>72325.82162</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>105339.38156</v>
+        <v>105590.24185</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>118026.63164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>120357.88808</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>203864.52</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>208603.26343</v>
@@ -2906,43 +3062,48 @@
         <v>428666.0827</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>193058.92252</v>
+        <v>193066.54093</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>690396.6566</v>
+        <v>690396.6547899999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-12690.94749</v>
+        <v>-12594.64298999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>568349.3125400001</v>
+        <v>643729.4662500001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>91053.23895</v>
+        <v>280783.8872299999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>250042.02977</v>
+        <v>250009.63235</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>399731.17531</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>325706.97294</v>
+        <v>324379.5623</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>563169.9753200001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>553061.8833100001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2411533.396</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>47629.19197</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>71962.33969999998</v>
+        <v>71962.3397</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>68758.08913999998</v>
@@ -2951,31 +3112,36 @@
         <v>112210.66679</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>58229.21305</v>
+        <v>58229.21305000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>106350.81753</v>
+        <v>106507.75225</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>46263.85997999999</v>
+        <v>95398.82551000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>91179.64241</v>
+        <v>91183.43768</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>101618.41638</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>101449.6777</v>
+        <v>101537.54102</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>99529.31527999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>100478.37944</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>199808.512</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>160974.07146</v>
@@ -2984,34 +3150,37 @@
         <v>356703.743</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>124300.83338</v>
+        <v>124308.45179</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>578185.9898100001</v>
+        <v>578185.988</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-70920.16054000001</v>
+        <v>-70823.85604</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>461998.49501</v>
+        <v>537221.714</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>44789.37897</v>
+        <v>185385.06172</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>158862.38736</v>
+        <v>158826.19467</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>298112.75893</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>224257.29524</v>
+        <v>222842.02128</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>463640.66004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>452583.50387</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2211724.884</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1992</v>
@@ -3038,34 +3210,37 @@
         <v>2018</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1866</v>
+        <v>1872</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1889</v>
+        <v>1904</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1912</v>
+        <v>1925</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2007</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1843</v>
+        <v>2031</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2138</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>